--- a/LA PINOZ PIZZA ASSESMENT WORK.xlsx
+++ b/LA PINOZ PIZZA ASSESMENT WORK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUGAL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D304B0EC-D6C8-4CE6-A554-EC3882FF5D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1DDD0C-D447-4336-B6EE-F45ABF0E7AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{06772B0D-94E0-4CB1-BE7B-0C33FEC06F6E}"/>
   </bookViews>
@@ -755,12 +755,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>it opens home page</t>
-  </si>
-  <si>
-    <t>as per expected result</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -770,27 +764,18 @@
     <t xml:space="preserve">1.click on login button                                 2.hovering over the login button it changed cursor                                           </t>
   </si>
   <si>
-    <t>it opens login popup menu</t>
-  </si>
-  <si>
     <t>Check  sent otp button</t>
   </si>
   <si>
     <t xml:space="preserve">1.enter mobile no                                                   2.click on sent otp                                                    3.hovering over the sent otp button it changed cursor                                   </t>
   </si>
   <si>
-    <t>it opens entering otp page.And message display:-otp sent successfully.</t>
-  </si>
-  <si>
     <t>Check close icon</t>
   </si>
   <si>
     <t>1.click on close icon                                               3.hovering over the close icon it changed cursor</t>
   </si>
   <si>
-    <t>it close login popup menu</t>
-  </si>
-  <si>
     <t>2.1.1</t>
   </si>
   <si>
@@ -803,27 +788,18 @@
     <t>receiving otp from mobile no:******</t>
   </si>
   <si>
-    <t>it opens home page with login and access my account icon</t>
-  </si>
-  <si>
     <t>Check order online link</t>
   </si>
   <si>
     <t>1.click on order online link                               2.hovering over the order online link it changed cursor</t>
   </si>
   <si>
-    <t>it opens order online page</t>
-  </si>
-  <si>
     <t>Check google play image button</t>
   </si>
   <si>
     <t>1.click on google play image button                                       2.hovering over the google play image button it changed cursor</t>
   </si>
   <si>
-    <t>it opens browser new window install &amp; download lapinoz application page</t>
-  </si>
-  <si>
     <t>Check apple store image button</t>
   </si>
   <si>
@@ -836,63 +812,39 @@
     <t>1.enter the location</t>
   </si>
   <si>
-    <t>it diplay result for search location</t>
-  </si>
-  <si>
     <t>Check locate me button</t>
   </si>
   <si>
     <t>1.click on locate me button                        2.hovering over the apple store image button it changed cursor</t>
   </si>
   <si>
-    <t>it diplay result form the current user location</t>
-  </si>
-  <si>
     <t>Check location name image or order me button</t>
   </si>
   <si>
     <t>1.click on location name or order me button                                  2.hovering over the location name or order me button it changed cursor</t>
   </si>
   <si>
-    <t>it opens order-(jahangirpura-surat) location page</t>
-  </si>
-  <si>
     <t>Check offer/discount use code button or icon</t>
   </si>
   <si>
     <t>1.click on offer/discount use code button or icon                                                                      2.hovering over the offer/discount use code button or icon it changed cursor</t>
   </si>
   <si>
-    <t>it opens popup menu</t>
-  </si>
-  <si>
     <t>1.click on close icon                                               2.hovering over the close icon it changed cursor</t>
   </si>
   <si>
-    <t>it close offer/discount use code button or icon popup menu</t>
-  </si>
-  <si>
     <t>Check okay got it! Button</t>
   </si>
   <si>
     <t>1.click on okay got it! Button                                               2.hovering over the okay got it! button it changed cursor</t>
   </si>
   <si>
-    <t>it diplay popup message:-promo code copied.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Check search button </t>
   </si>
   <si>
     <t>1.click on search button/search text field                                   2.hovering over the search button/search text field it changed cursor</t>
   </si>
   <si>
-    <t>it opens search box with auto suggestion name &amp; image &amp; link</t>
-  </si>
-  <si>
-    <t>as per expected result  note:-UI error- Even if you click outside the search box, the search box opens</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -902,9 +854,6 @@
     <t>1.click on premium veg farmwilla pizza or icon or image                                                                       2.hovering over the premium veg farmwilla pizza or icon or image it changed cursor</t>
   </si>
   <si>
-    <t>it opens popup menu for farmwilla pizza</t>
-  </si>
-  <si>
     <t>10.1.1</t>
   </si>
   <si>
@@ -926,9 +875,6 @@
     <t>1.click on cancel Button                                               2.hovering over the cancel button it changed cursor</t>
   </si>
   <si>
-    <t>it close farmwilla pizza menu</t>
-  </si>
-  <si>
     <t>Personal slice veg pizza</t>
   </si>
   <si>
@@ -938,24 +884,15 @@
     <t>1.click on personal slice veg pizza button</t>
   </si>
   <si>
-    <t>it display personal slice veg pizza section/part</t>
-  </si>
-  <si>
     <t>Check text margherita pizza (personal gaint slice 22.5 cm) or image or add button</t>
   </si>
   <si>
     <t>1.click on text margherita pizza (personal gaint slice 22.5 cm) or image or add button</t>
   </si>
   <si>
-    <t>it opens popup menu for margherita pizza</t>
-  </si>
-  <si>
     <t>1.click on add to cart Button                              (below all option are optional)                                                              2.click &amp; select on toppings-veg                               3.click &amp; select cheese &amp; dip                               4.click on choose your ketchup                                5.hovering over the add to cart button it changed cursor</t>
   </si>
   <si>
-    <t>it close margherita pizza menu</t>
-  </si>
-  <si>
     <t xml:space="preserve">             Featured items</t>
   </si>
   <si>
@@ -971,24 +908,15 @@
     <t>1.click on featured items button</t>
   </si>
   <si>
-    <t>it display featured items section/part</t>
-  </si>
-  <si>
     <t>Check paneer tikka butter masala pizza image or add button</t>
   </si>
   <si>
     <t>1.click on paneer tikka butter masala pizza image or add button</t>
   </si>
   <si>
-    <t>it opens popup menu for paneer tikka butter masala pizza</t>
-  </si>
-  <si>
     <t>1.click on add to cart Button                               2.click &amp; select on varients button (below all option are optional                                                3.click &amp; select on upgrade your base               4.click &amp; select on toppings-veg                          5.click &amp; select cheese &amp; dip                               6.click on choose your ketchup                                7.hovering over the add to cart button it changed cursor</t>
   </si>
   <si>
-    <t>it close paneer tikka butter masala pizza menu</t>
-  </si>
-  <si>
     <t>Pizzas</t>
   </si>
   <si>
@@ -998,63 +926,42 @@
     <t>1.click on pizzas button</t>
   </si>
   <si>
-    <t>it display pizzas section/part</t>
-  </si>
-  <si>
     <t>Check traditional veg button(categories)</t>
   </si>
   <si>
     <t>1.click on traditional veg button</t>
   </si>
   <si>
-    <t>it display traditional veg section/part</t>
-  </si>
-  <si>
     <t>Check simply veg button(categories)</t>
   </si>
   <si>
     <t>1.click on simply veg button</t>
   </si>
   <si>
-    <t>it display simply veg section/part</t>
-  </si>
-  <si>
     <t>Check exocite veg button(categories)</t>
   </si>
   <si>
     <t>1.click on exocite veg button</t>
   </si>
   <si>
-    <t>it display exocite veg section/part</t>
-  </si>
-  <si>
     <t>Check speciality veg button(categories)</t>
   </si>
   <si>
     <t>1.click on speciality veg button</t>
   </si>
   <si>
-    <t>it display speciality veg section/part</t>
-  </si>
-  <si>
     <t>Check premium veg button(categories)</t>
   </si>
   <si>
     <t>1.click on premium veg button</t>
   </si>
   <si>
-    <t>it display premium veg section/part</t>
-  </si>
-  <si>
     <t>Check text garden special  pizza image or add button</t>
   </si>
   <si>
     <t>1.click on text garden special pizza image or add button</t>
   </si>
   <si>
-    <t>it opens popup menu for  garden special pizza</t>
-  </si>
-  <si>
     <t>1.click on add to cart Button                                2.click &amp; select on varients button (below all option are optional                                                3.click &amp; select on upgrade your base               4.click &amp; select on toppings-veg                         5.click &amp; select ch eese &amp; dip                              6.click on choose your ketchup                                7.hovering over the add to cart button it changed cursor</t>
   </si>
   <si>
@@ -1064,9 +971,6 @@
     <t>1.click on minus button                                               2.hovering over the minus button it changed cursor</t>
   </si>
   <si>
-    <t>it remove item from cart</t>
-  </si>
-  <si>
     <t>Add to cart process &amp; cash on delivery process</t>
   </si>
   <si>
@@ -1076,39 +980,24 @@
     <t>1.click on plus button                                               2.hovering over the plus button it changed cursor</t>
   </si>
   <si>
-    <t>it add items on cart also add price amount in total price amount</t>
-  </si>
-  <si>
-    <t>it remove items on cart also minus price amount in total price amount</t>
-  </si>
-  <si>
     <t>Check checkout button</t>
   </si>
   <si>
     <t>1.click on checkout button                                               2.hovering over the checkout button it changed cursor</t>
   </si>
   <si>
-    <t>it opens checkout page</t>
-  </si>
-  <si>
     <t>Check pickup order button</t>
   </si>
   <si>
     <t>1.click on pickup order button                                               2.hovering over the pickup order button it changed cursor</t>
   </si>
   <si>
-    <t>it opens popup menu for pickup order</t>
-  </si>
-  <si>
     <t>Check yes, i will pickup order button</t>
   </si>
   <si>
     <t>1.click on yes,i will pickup order button                                               2.hovering over the yes,i will pickup order button it changed cursor</t>
   </si>
   <si>
-    <t>it display message:-you will need to pickup this order form</t>
-  </si>
-  <si>
     <t>22.1.1`</t>
   </si>
   <si>
@@ -1118,18 +1007,12 @@
     <t>1.click on get directions link                                               2.hovering over the get directions link it changed cursor</t>
   </si>
   <si>
-    <t>it opens brower new window in google map for directions</t>
-  </si>
-  <si>
     <t>Check get delivery instead button</t>
   </si>
   <si>
     <t>1.click on get delivery instead button                                               2.hovering over the get delivery instead button it changed cursor</t>
   </si>
   <si>
-    <t>it display message:-delivery at</t>
-  </si>
-  <si>
     <t>Check delivery button</t>
   </si>
   <si>
@@ -1142,27 +1025,18 @@
     <t>1.click on change link                                               2.hovering over the change link it changed cursor</t>
   </si>
   <si>
-    <t>it opens popup menu for change delivery adress</t>
-  </si>
-  <si>
     <t>Check select button</t>
   </si>
   <si>
     <t>1.click on select link                                               2.hovering over the select button it changed cursor</t>
   </si>
   <si>
-    <t>its message:-delivery address seelected!</t>
-  </si>
-  <si>
     <t>Check edit link</t>
   </si>
   <si>
     <t>1.click on edit link                                               2.hovering over the edit link it changed cursor</t>
   </si>
   <si>
-    <t xml:space="preserve">it opens pop up menu for add new address </t>
-  </si>
-  <si>
     <t>24.2.1</t>
   </si>
   <si>
@@ -1172,51 +1046,33 @@
     <t>1.click on save address button                                               2.hovering over the save address button it changed cursor</t>
   </si>
   <si>
-    <t>it opens change delivery address popup menu</t>
-  </si>
-  <si>
     <t>Check add  new address button</t>
   </si>
   <si>
     <t>1.click on add  new address button                                               2.hovering over the add  new address button it changed cursor</t>
   </si>
   <si>
-    <t>it opens location popup menu</t>
-  </si>
-  <si>
     <t>1.click on close  icon                                               2.hovering over the close  icon it changed cursor</t>
   </si>
   <si>
-    <t>it colse popup menu</t>
-  </si>
-  <si>
     <t>Check dine-in button</t>
   </si>
   <si>
     <t>1.click on dine-in button                                               2.hovering over the dine-in button it changed cursor</t>
   </si>
   <si>
-    <t>it display :-enter table number</t>
-  </si>
-  <si>
     <t>Check in-car button</t>
   </si>
   <si>
     <t>1.click on in-car button                                               2.hovering over the in-car button it changed cursor</t>
   </si>
   <si>
-    <t>it display :-no car no added</t>
-  </si>
-  <si>
     <t>Check select link</t>
   </si>
   <si>
     <t>1.click on select link                                               2.hovering over the select link it changed cursor</t>
   </si>
   <si>
-    <t>it opens popup menu for select car details</t>
-  </si>
-  <si>
     <t>25.1.1</t>
   </si>
   <si>
@@ -1226,9 +1082,6 @@
     <t>1.enter the car registration no                          2.click on add no button                                               3.hovering over the select link it changed cursor</t>
   </si>
   <si>
-    <t>it message:-car no seleted!</t>
-  </si>
-  <si>
     <t>25.1.2</t>
   </si>
   <si>
@@ -1238,55 +1091,34 @@
     <t>1.click on add to more items link                                               2.hovering over the add to more items link it changed cursor</t>
   </si>
   <si>
-    <t>it opens orser-online page</t>
-  </si>
-  <si>
     <t>Check left back arrow icon link</t>
   </si>
   <si>
     <t>1.click on left back arrow icon link                                               2.hovering over the left back arrow icon link it changed cursor</t>
   </si>
   <si>
-    <t>it opens order-online page</t>
-  </si>
-  <si>
     <t>Check apply coupon button</t>
   </si>
   <si>
     <t>1.click on apply coupon button                                               2.hovering over the apply coupon button it changed cursor</t>
   </si>
   <si>
-    <t>it opens popup menu for apply coupon</t>
-  </si>
-  <si>
     <t>Check apply link</t>
   </si>
   <si>
     <t>1.click on apply link                                               2.hovering over the apply link it changed cursor</t>
   </si>
   <si>
-    <t>it display:-selected coupon code applied!</t>
-  </si>
-  <si>
     <t>Check pay securely button</t>
   </si>
   <si>
     <t>1.click on pay securely button                                               2.hovering over the pay securely button it changed cursor</t>
   </si>
   <si>
-    <t>it opens secure payment options page</t>
-  </si>
-  <si>
-    <t>it opens delivery page</t>
-  </si>
-  <si>
     <t>Check pay using cash or proceed button</t>
   </si>
   <si>
     <t>1.click on pay using cash or proceed button                                               2.hovering over the pay using cash or proceed button it changed cursor</t>
-  </si>
-  <si>
-    <t>it opens confirmed order page .also display order status,order no,order invoice,delivery status</t>
   </si>
   <si>
     <t xml:space="preserve">             </t>
@@ -1840,6 +1672,174 @@
   </si>
   <si>
     <t>https://www.file.io/beiq/download/uzN9xnFcJaDV</t>
+  </si>
+  <si>
+    <t>It close paneer tikka butter masala pizza menu</t>
+  </si>
+  <si>
+    <t>It opens checkout page</t>
+  </si>
+  <si>
+    <t>It opens popup menu for pickup order</t>
+  </si>
+  <si>
+    <t>It display message:-you will need to pickup this order form</t>
+  </si>
+  <si>
+    <t>It opens brower new window in google map for directions</t>
+  </si>
+  <si>
+    <t>It display message:-delivery at</t>
+  </si>
+  <si>
+    <t>It opens popup menu for change delivery adress</t>
+  </si>
+  <si>
+    <t>Its message:-delivery address seelected!</t>
+  </si>
+  <si>
+    <t>It opens home page</t>
+  </si>
+  <si>
+    <t>It opens login popup menu</t>
+  </si>
+  <si>
+    <t>It opens entering otp page.And message display:-otp sent successfully.</t>
+  </si>
+  <si>
+    <t>It close login popup menu</t>
+  </si>
+  <si>
+    <t>It opens home page wIth login and access my account icon</t>
+  </si>
+  <si>
+    <t>It opens order online page</t>
+  </si>
+  <si>
+    <t>It opens browser new window install &amp; download lapinoz application page</t>
+  </si>
+  <si>
+    <t>It diplay result for search location</t>
+  </si>
+  <si>
+    <t>It diplay result form the current user location</t>
+  </si>
+  <si>
+    <t>It opens order-(jahangirpura-surat) location page</t>
+  </si>
+  <si>
+    <t>It opens popup menu</t>
+  </si>
+  <si>
+    <t>It close offer/discount use code button or icon popup menu</t>
+  </si>
+  <si>
+    <t>It diplay popup message:-promo code copied.</t>
+  </si>
+  <si>
+    <t>It opens search box wIth auto suggestion name &amp; image &amp; link</t>
+  </si>
+  <si>
+    <t>It opens popup menu for farmwilla pizza</t>
+  </si>
+  <si>
+    <t>It close farmwilla pizza menu</t>
+  </si>
+  <si>
+    <t>It display personal slice veg pizza section/part</t>
+  </si>
+  <si>
+    <t>It opens popup menu for margherIta pizza</t>
+  </si>
+  <si>
+    <t>It close margherIta pizza menu</t>
+  </si>
+  <si>
+    <t>It display featured Items section/part</t>
+  </si>
+  <si>
+    <t>It opens popup menu for paneer tikka butter masala pizza</t>
+  </si>
+  <si>
+    <t>It display pizzas section/part</t>
+  </si>
+  <si>
+    <t>It display tradItional veg section/part</t>
+  </si>
+  <si>
+    <t>It display simply veg section/part</t>
+  </si>
+  <si>
+    <t>It display exocIte veg section/part</t>
+  </si>
+  <si>
+    <t>It display specialIty veg section/part</t>
+  </si>
+  <si>
+    <t>It display premium veg section/part</t>
+  </si>
+  <si>
+    <t>It opens popup menu for  garden special pizza</t>
+  </si>
+  <si>
+    <t>It remove Item from cart</t>
+  </si>
+  <si>
+    <t>It add Items on cart also add price amount in total price amount</t>
+  </si>
+  <si>
+    <t>It remove Items on cart also minus price amount in total price amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It opens pop up menu for add new address </t>
+  </si>
+  <si>
+    <t>It opens change delivery address popup menu</t>
+  </si>
+  <si>
+    <t>It opens location popup menu</t>
+  </si>
+  <si>
+    <t>It colse popup menu</t>
+  </si>
+  <si>
+    <t>It display :-enter table number</t>
+  </si>
+  <si>
+    <t>It display :-no car no added</t>
+  </si>
+  <si>
+    <t>It opens popup menu for select car details</t>
+  </si>
+  <si>
+    <t>It message:-car no seleted!</t>
+  </si>
+  <si>
+    <t>It opens orser-online page</t>
+  </si>
+  <si>
+    <t>It opens order-online page</t>
+  </si>
+  <si>
+    <t>It opens popup menu for apply coupon</t>
+  </si>
+  <si>
+    <t>It display:-selected coupon code applied!</t>
+  </si>
+  <si>
+    <t>It opens secure payment options page</t>
+  </si>
+  <si>
+    <t>It opens delivery page</t>
+  </si>
+  <si>
+    <t>It opens confirmed order page .also display order status,order no,order invoice,delivery status</t>
+  </si>
+  <si>
+    <t>As per expected result</t>
+  </si>
+  <si>
+    <t>As per expected result  note:-UI error- Even if you click outside the search box, the search box opens</t>
   </si>
 </sst>
 </file>
@@ -2051,7 +2051,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2076,13 +2076,19 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2094,15 +2100,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2472,7 +2471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96494B7C-9A46-45FD-98B4-64AA8A289BF7}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A179" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2485,10 +2484,10 @@
     <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>405</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -4339,8 +4338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707CD284-E86A-44C5-A627-DFD6D531DBB6}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="H10" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4391,7 +4390,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -4418,13 +4417,13 @@
         <v>226</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -4435,25 +4434,25 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>232</v>
+        <v>507</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
@@ -4464,25 +4463,25 @@
         <v>2.1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>235</v>
+        <v>508</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -4493,25 +4492,25 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>238</v>
+        <v>509</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="78" x14ac:dyDescent="0.3">
@@ -4519,28 +4518,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>243</v>
+        <v>510</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -4551,25 +4550,25 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>246</v>
+        <v>511</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="78" x14ac:dyDescent="0.3">
@@ -4580,25 +4579,25 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>249</v>
+        <v>512</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="78" x14ac:dyDescent="0.3">
@@ -4609,25 +4608,25 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>249</v>
+        <v>512</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -4638,25 +4637,25 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>254</v>
+        <v>513</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -4667,25 +4666,25 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>257</v>
+        <v>514</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
@@ -4696,25 +4695,25 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>260</v>
+        <v>515</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -4723,7 +4722,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -4738,25 +4737,25 @@
         <v>9</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>224</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>226</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>263</v>
+        <v>516</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
@@ -4767,25 +4766,25 @@
         <v>9.1</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>224</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>226</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>265</v>
+        <v>517</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -4796,25 +4795,25 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>224</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>268</v>
+        <v>518</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
@@ -4825,25 +4824,25 @@
         <v>10</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>224</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>226</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>271</v>
+        <v>519</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>272</v>
+        <v>553</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="78" x14ac:dyDescent="0.3">
@@ -4854,25 +4853,25 @@
         <v>10.1</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>224</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>226</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>276</v>
+        <v>520</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="140.4" x14ac:dyDescent="0.3">
@@ -4880,28 +4879,28 @@
         <v>17</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>224</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>226</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -4909,33 +4908,33 @@
         <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>224</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>226</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>284</v>
+        <v>521</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -4954,25 +4953,25 @@
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>288</v>
+        <v>522</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
@@ -4983,25 +4982,25 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>291</v>
+        <v>523</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
@@ -5012,25 +5011,25 @@
         <v>12.1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -5041,25 +5040,25 @@
         <v>12.2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>293</v>
+        <v>524</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5068,7 +5067,7 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -5083,25 +5082,25 @@
         <v>13</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>299</v>
+        <v>525</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
@@ -5112,25 +5111,25 @@
         <v>14</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>302</v>
+        <v>526</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="140.4" x14ac:dyDescent="0.3">
@@ -5141,25 +5140,25 @@
         <v>14.1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -5170,30 +5169,30 @@
         <v>14.2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>304</v>
+        <v>498</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -5212,25 +5211,25 @@
         <v>15</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>308</v>
+        <v>527</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -5241,25 +5240,25 @@
         <v>15.1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>311</v>
+        <v>528</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -5270,25 +5269,25 @@
         <v>15.2</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>314</v>
+        <v>529</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -5299,25 +5298,25 @@
         <v>15.3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>317</v>
+        <v>530</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -5328,25 +5327,25 @@
         <v>15.4</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>320</v>
+        <v>531</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -5357,25 +5356,25 @@
         <v>15.5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>323</v>
+        <v>532</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -5386,25 +5385,25 @@
         <v>16</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>326</v>
+        <v>533</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="140.4" x14ac:dyDescent="0.3">
@@ -5415,25 +5414,25 @@
         <v>17.100000000000001</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -5444,25 +5443,25 @@
         <v>17.2</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>304</v>
+        <v>498</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -5473,30 +5472,30 @@
         <v>18</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>330</v>
+        <v>534</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -5515,25 +5514,25 @@
         <v>19</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>334</v>
+        <v>535</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
@@ -5544,25 +5543,25 @@
         <v>20</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>335</v>
+        <v>536</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -5573,25 +5572,25 @@
         <v>21</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>338</v>
+        <v>499</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -5602,25 +5601,25 @@
         <v>22</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>341</v>
+        <v>500</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
@@ -5631,25 +5630,25 @@
         <v>22.1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>344</v>
+        <v>501</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
@@ -5657,28 +5656,28 @@
         <v>42</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>348</v>
+        <v>502</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -5689,25 +5688,25 @@
         <v>22.2</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>351</v>
+        <v>503</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -5718,25 +5717,25 @@
         <v>23</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>351</v>
+        <v>503</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -5747,25 +5746,25 @@
         <v>24</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>356</v>
+        <v>504</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -5776,25 +5775,25 @@
         <v>24.1</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>359</v>
+        <v>505</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -5805,25 +5804,25 @@
         <v>24.2</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>362</v>
+        <v>537</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -5831,28 +5830,28 @@
         <v>48</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>366</v>
+        <v>538</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -5863,25 +5862,25 @@
         <v>24.3</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>369</v>
+        <v>539</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -5892,25 +5891,25 @@
         <v>24.4</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>370</v>
+        <v>326</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>371</v>
+        <v>540</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -5921,25 +5920,25 @@
         <v>25</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>374</v>
+        <v>541</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -5950,25 +5949,25 @@
         <v>25</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>377</v>
+        <v>542</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -5979,25 +5978,25 @@
         <v>25.1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>380</v>
+        <v>543</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
@@ -6005,28 +6004,28 @@
         <v>54</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>384</v>
+        <v>544</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -6034,28 +6033,28 @@
         <v>55</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>371</v>
+        <v>540</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -6066,25 +6065,25 @@
         <v>26</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>388</v>
+        <v>545</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -6095,25 +6094,25 @@
         <v>27</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>391</v>
+        <v>546</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -6124,25 +6123,25 @@
         <v>28</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>394</v>
+        <v>547</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -6153,25 +6152,25 @@
         <v>28.1</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>371</v>
+        <v>540</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -6182,25 +6181,25 @@
         <v>28.2</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>395</v>
+        <v>343</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>397</v>
+        <v>548</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -6211,25 +6210,25 @@
         <v>29</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>400</v>
+        <v>549</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -6240,25 +6239,25 @@
         <v>30</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>401</v>
+        <v>550</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
@@ -6269,25 +6268,25 @@
         <v>31</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>402</v>
+        <v>347</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>403</v>
+        <v>348</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>404</v>
+        <v>551</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -6334,7 +6333,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6355,407 +6354,407 @@
         <v>214</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>408</v>
+        <v>352</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>409</v>
+        <v>353</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>411</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>415</v>
+      <c r="B2" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>415</v>
+      <c r="B3" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>415</v>
+      <c r="B4" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>415</v>
+      <c r="B5" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>415</v>
+      <c r="B6" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>415</v>
+      <c r="B7" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>415</v>
+      <c r="B8" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>415</v>
+      <c r="B9" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>415</v>
+      <c r="B10" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>415</v>
+      <c r="B11" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>415</v>
+      <c r="B12" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>415</v>
+      <c r="B13" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>415</v>
+      <c r="B14" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>415</v>
+      <c r="B15" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>415</v>
+      <c r="B16" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>415</v>
+      <c r="B17" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>415</v>
+      <c r="B18" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>415</v>
+      <c r="B19" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>415</v>
+      <c r="B20" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>415</v>
+      <c r="B21" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>415</v>
+      <c r="B22" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>415</v>
+      <c r="B23" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>415</v>
+      <c r="B24" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -6774,766 +6773,766 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="35.77734375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="28.5546875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="15.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="28.5546875" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="J20" s="15"/>
+    </row>
+    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="E23" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="I23" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="H1" s="20" t="s">
+      <c r="G24" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="I24" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>473</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>466</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>467</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>466</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="I25" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>500</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>474</v>
-      </c>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>466</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>477</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>498</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>474</v>
-      </c>
-      <c r="J4" s="21"/>
-    </row>
-    <row r="5" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>466</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>477</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>494</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>474</v>
-      </c>
-      <c r="J5" s="21"/>
-    </row>
-    <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>478</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>479</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="J6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>510</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>508</v>
-      </c>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>510</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>508</v>
-      </c>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>549</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>550</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>551</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>552</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>553</v>
-      </c>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>542</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>525</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>523</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>524</v>
-      </c>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
-        <v>10</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>526</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>527</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>528</v>
-      </c>
-      <c r="J11" s="21"/>
-    </row>
-    <row r="12" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
-        <v>11</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>534</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>536</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="J12" s="21"/>
-    </row>
-    <row r="13" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
-        <v>12</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>538</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>537</v>
-      </c>
-      <c r="J13" s="21"/>
-    </row>
-    <row r="14" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
-        <v>13</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>543</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>540</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>539</v>
-      </c>
-      <c r="J14" s="21"/>
-    </row>
-    <row r="15" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
-        <v>14</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>546</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>545</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>544</v>
-      </c>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
-        <v>15</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>546</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>547</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>548</v>
-      </c>
-      <c r="J16" s="21"/>
-    </row>
-    <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
-        <v>16</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>482</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>511</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>484</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="J17" s="21"/>
-    </row>
-    <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
-        <v>17</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>484</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>487</v>
-      </c>
-      <c r="J18" s="21"/>
-    </row>
-    <row r="19" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
-        <v>18</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>513</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>501</v>
-      </c>
-      <c r="J19" s="21"/>
-    </row>
-    <row r="20" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
-        <v>19</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>489</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="J20" s="21"/>
-    </row>
-    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>489</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>494</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="J21" s="21"/>
-    </row>
-    <row r="22" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
-        <v>21</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>516</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="J22" s="21"/>
-    </row>
-    <row r="23" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
-        <v>22</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>521</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="J23" s="21"/>
-    </row>
-    <row r="24" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
-        <v>23</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>519</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>518</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>517</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>520</v>
-      </c>
-      <c r="J24" s="21"/>
-    </row>
-    <row r="25" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="A25" s="21">
-        <v>24</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>530</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>531</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>532</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>494</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>533</v>
-      </c>
-      <c r="J25" s="21"/>
+      <c r="J25" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
